--- a/linen.xlsx
+++ b/linen.xlsx
@@ -25,58 +25,58 @@
     <t>Date</t>
   </si>
   <si>
+    <t>E28068910000500DAF23D52Fe</t>
+  </si>
+  <si>
+    <t>celanaas</t>
+  </si>
+  <si>
+    <t>E28068910000500DAF232931e</t>
+  </si>
+  <si>
+    <t>E28068910000500DAF231529e</t>
+  </si>
+  <si>
     <t>E28068910000500DAF25912Ae</t>
   </si>
   <si>
-    <t>-</t>
+    <t>E28068910000500DAF23512Fe</t>
+  </si>
+  <si>
+    <t>E28068910000400DAF250516e</t>
+  </si>
+  <si>
+    <t>E28068910000400DAF24A116e</t>
+  </si>
+  <si>
+    <t>E28068910000400DAF22792Ce</t>
+  </si>
+  <si>
+    <t>E28068910000400DAF257D293</t>
+  </si>
+  <si>
+    <t>E28068910000500DAF22B12C3</t>
+  </si>
+  <si>
+    <t>E28068910000400DAF2309343</t>
+  </si>
+  <si>
+    <t>E28068910000500DAF25CD293</t>
+  </si>
+  <si>
+    <t>E28068910000400DAF23A931e</t>
   </si>
   <si>
     <t>E28068910000400DAF25D1293</t>
   </si>
   <si>
+    <t>E28068910000400DAF25A937s</t>
+  </si>
+  <si>
+    <t>E28068910000500DAF235D31e</t>
+  </si>
+  <si>
     <t>E28068910000400DAF2071343</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF25A937s</t>
-  </si>
-  <si>
-    <t>E28068910000500DAF23D52Fe</t>
-  </si>
-  <si>
-    <t>E28068910000500DAF232931e</t>
-  </si>
-  <si>
-    <t>E28068910000500DAF231529e</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF23A931e</t>
-  </si>
-  <si>
-    <t>E28068910000500DAF235D31e</t>
-  </si>
-  <si>
-    <t>E28068910000500DAF23512Fe</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF250516e</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF24A116e</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF22792Ce</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF257D293</t>
-  </si>
-  <si>
-    <t>E28068910000500DAF22B12C3</t>
-  </si>
-  <si>
-    <t>E28068910000400DAF2309343</t>
-  </si>
-  <si>
-    <t>E28068910000500DAF25CD293</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2">
-        <v>45070.12729159722</v>
+        <v>45071.17081054398</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,7 +507,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>45070.12729159722</v>
+        <v>45071.17081054398</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -521,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>45070.12729159722</v>
+        <v>45071.17081054398</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -535,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="2">
-        <v>45070.12729159722</v>
+        <v>45071.17081054398</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>45070.12729159722</v>
+        <v>45071.17081054398</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -563,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>45070.12729159722</v>
+        <v>45071.17081054398</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="2">
-        <v>45070.12729159722</v>
+        <v>45071.17081054398</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="2">
-        <v>45070.12729159722</v>
+        <v>45071.17081054398</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -605,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="2">
-        <v>45070.12729159722</v>
+        <v>45071.17081054398</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="2">
-        <v>45070.12729159722</v>
+        <v>45071.17081054398</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -633,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="2">
-        <v>45070.12729159722</v>
+        <v>45071.17081054398</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="2">
-        <v>45070.12729159722</v>
+        <v>45071.17081054398</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -661,7 +661,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="2">
-        <v>45070.12729159722</v>
+        <v>45071.17081054398</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -675,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="2">
-        <v>45070.12729159722</v>
+        <v>45071.17081054398</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="2">
-        <v>45070.12729159722</v>
+        <v>45071.17081054398</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="2">
-        <v>45070.12729159722</v>
+        <v>45071.17081054398</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -717,7 +717,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="2">
-        <v>45070.12729159722</v>
+        <v>45071.17081054398</v>
       </c>
     </row>
   </sheetData>
